--- a/Nozawa_work/キャッシュフロー.xlsx
+++ b/Nozawa_work/キャッシュフロー.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F39520-88F2-438D-89D9-3EEA23F208E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF8E16-BFD2-439E-82FC-B502F542D545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>2期目</t>
   </si>
@@ -45,121 +45,141 @@
     <t>3月</t>
   </si>
   <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>派遣先</t>
+  </si>
+  <si>
+    <t>㈱フロムスクラッチ</t>
+  </si>
+  <si>
+    <t>斎藤伸弘</t>
+  </si>
+  <si>
+    <t>派遣元</t>
+  </si>
+  <si>
+    <t>㈱itoq</t>
+  </si>
+  <si>
+    <t>大国博之</t>
+  </si>
+  <si>
+    <t>デイブレイク</t>
+  </si>
+  <si>
+    <t>栗林祥太</t>
+  </si>
+  <si>
+    <t>伊藤涼</t>
+  </si>
+  <si>
+    <t>原菜摘</t>
+  </si>
+  <si>
+    <t>ACWEB</t>
+  </si>
+  <si>
+    <t>平川綾香</t>
+  </si>
+  <si>
+    <t>アイテックス</t>
+  </si>
+  <si>
+    <t>大木啓史</t>
+  </si>
+  <si>
+    <t>ソフィア</t>
+  </si>
+  <si>
+    <t>外注費</t>
+  </si>
+  <si>
+    <t>㈱イードア</t>
+  </si>
+  <si>
+    <t>㈱ニハゼ</t>
+  </si>
+  <si>
+    <t>売上</t>
+  </si>
+  <si>
+    <t>仕入</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>顧問料</t>
+  </si>
+  <si>
+    <t>オフィス賃料</t>
+  </si>
+  <si>
+    <t>役員報酬・給与</t>
+  </si>
+  <si>
+    <t>法定福利費</t>
+  </si>
+  <si>
+    <t>カード代金</t>
+  </si>
+  <si>
+    <t>カード代金・アメックス</t>
+  </si>
+  <si>
+    <t>酒巻振込</t>
+  </si>
+  <si>
+    <t>返済</t>
+  </si>
+  <si>
+    <t>社宅</t>
+  </si>
+  <si>
+    <t>源泉</t>
+  </si>
+  <si>
+    <t>住民税</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>経費合計</t>
+  </si>
+  <si>
+    <t>単月利益</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>３期</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>派遣先</t>
-  </si>
-  <si>
-    <t>㈱フロムスクラッチ</t>
-  </si>
-  <si>
-    <t>斎藤伸弘</t>
-  </si>
-  <si>
-    <t>派遣元</t>
-  </si>
-  <si>
-    <t>㈱itoq</t>
-  </si>
-  <si>
-    <t>大国博之</t>
-  </si>
-  <si>
-    <t>デイブレイク</t>
-  </si>
-  <si>
-    <t>栗林祥太</t>
-  </si>
-  <si>
-    <t>伊藤涼</t>
-  </si>
-  <si>
-    <t>原菜摘</t>
-  </si>
-  <si>
-    <t>ACWEB</t>
-  </si>
-  <si>
-    <t>平川綾香</t>
-  </si>
-  <si>
-    <t>アイテックス</t>
-  </si>
-  <si>
-    <t>大木啓史</t>
-  </si>
-  <si>
-    <t>ソフィア</t>
-  </si>
-  <si>
-    <t>外注費</t>
-  </si>
-  <si>
-    <t>㈱イードア</t>
-  </si>
-  <si>
-    <t>㈱ニハゼ</t>
-  </si>
-  <si>
-    <t>売上</t>
-  </si>
-  <si>
-    <t>仕入</t>
-  </si>
-  <si>
-    <t>利益</t>
-  </si>
-  <si>
-    <t>顧問料</t>
-  </si>
-  <si>
-    <t>オフィス賃料</t>
-  </si>
-  <si>
-    <t>役員報酬・給与</t>
-  </si>
-  <si>
-    <t>法定福利費</t>
-  </si>
-  <si>
-    <t>カード代金</t>
-  </si>
-  <si>
-    <t>カード代金・アメックス</t>
-  </si>
-  <si>
-    <t>酒巻振込</t>
-  </si>
-  <si>
-    <t>返済</t>
-  </si>
-  <si>
-    <t>社宅</t>
-  </si>
-  <si>
-    <t>源泉</t>
-  </si>
-  <si>
-    <t>住民税</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>経費合計</t>
-  </si>
-  <si>
-    <t>単月利益</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -167,11 +187,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="185" formatCode="m/d;@"/>
-    <numFmt numFmtId="189" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,8 +211,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +239,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4395CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD387AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -223,11 +275,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="3" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="3" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEFD5E2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC15B8E"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,36 +386,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFD5E2"/>
+      <color rgb="FFC15B8E"/>
+      <color rgb="FFE5B9CF"/>
+      <color rgb="FFD387AD"/>
+      <color rgb="FF4395CD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -597,7 +785,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S48"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -611,46 +800,84 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D1" t="s">
+    <row r="1" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D2" s="7" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S2" s="14"/>
+      <c r="T2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="14"/>
+      <c r="X2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -669,15 +896,15 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>627000</v>
@@ -706,14 +933,14 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="3">
         <v>-550000</v>
       </c>
@@ -741,7 +968,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -760,15 +987,15 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>283800</v>
@@ -813,14 +1040,14 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="3">
         <v>-260150</v>
       </c>
@@ -863,8 +1090,10 @@
       <c r="Q8" s="4">
         <v>43987</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S8" s="19"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -883,15 +1112,15 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>283800</v>
@@ -936,14 +1165,14 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="3">
         <v>-260150</v>
       </c>
@@ -987,7 +1216,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1006,15 +1235,15 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="3">
         <v>283800</v>
@@ -1059,14 +1288,14 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="3">
         <v>-260150</v>
       </c>
@@ -1110,7 +1339,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1129,15 +1358,15 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
+      <c r="C16" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -1173,15 +1402,16 @@
       <c r="Q16" s="4">
         <v>43982</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="AC16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -1217,7 +1447,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1236,15 +1466,15 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -1273,14 +1503,14 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -1308,7 +1538,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1327,15 +1557,15 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1356,14 +1586,14 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -1383,7 +1613,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1402,20 +1632,20 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H27" s="5">
         <v>110000</v>
@@ -1448,640 +1678,856 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <f>SUMIF(D$3:D28,"&gt;0")</f>
         <v>1478400</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f>SUMIF(F$3:F28,"&gt;0")</f>
         <v>2607000</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <f>SUMIF(H$3:H28,"&gt;0")</f>
         <v>3234000</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <f>SUMIF(J$3:J28,"&gt;0")</f>
         <v>2607000</v>
       </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <f>SUMIF(L$3:L28,"&gt;0")</f>
         <v>3267000</v>
       </c>
       <c r="M29" s="7"/>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <f>SUMIF(N$3:N28,"&gt;0")</f>
         <v>3267000</v>
       </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="9">
+      <c r="P29" s="8">
         <f>SUMIF(P$3:P28,"&gt;0")</f>
         <v>4037000</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f>SUMIF(D$3:D28,"&lt;0")</f>
         <v>-1330450</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="9"/>
+      <c r="F30" s="12">
         <f>SUMIF(F$3:F28,"&lt;0")</f>
         <v>-2365000</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12">
         <f>SUMIF(H$3:H28,"&lt;0")</f>
         <v>-2849000</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12">
         <f>SUMIF(J$3:J28,"&lt;0")</f>
         <v>-2299000</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12">
         <f>SUMIF(L$3:L28,"&lt;0")</f>
         <v>-2904000</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12">
         <f>SUMIF(N$3:N28,"&lt;0")</f>
         <v>-2904000</v>
       </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12">
         <f>SUMIF(P$3:P28,"&lt;0")</f>
         <v>-3575000</v>
       </c>
-      <c r="Q30" s="10"/>
+      <c r="Q30" s="12"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f>D29+D30</f>
         <v>147950</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f t="shared" ref="F31" si="0">F29+F30</f>
         <v>242000</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <f t="shared" ref="H31" si="1">H29+H30</f>
         <v>385000</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <f t="shared" ref="J31" si="2">J29+J30</f>
         <v>308000</v>
       </c>
       <c r="K31" s="7"/>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <f t="shared" ref="L31" si="3">L29+L30</f>
         <v>363000</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <f t="shared" ref="N31" si="4">N29+N30</f>
         <v>363000</v>
       </c>
       <c r="O31" s="7"/>
-      <c r="P31" s="9">
+      <c r="P31" s="8">
         <f t="shared" ref="P31" si="5">P29+P30</f>
         <v>462000</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
+        <v>20</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
+        <v>20</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9">
+        <v>20</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9">
+        <v>20</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9">
+        <v>20</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9">
+        <v>20</v>
+      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9">
+        <v>20</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9">
+        <v>20</v>
+      </c>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA34" s="9"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10">
-        <v>20</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10">
-        <v>20</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10">
-        <v>20</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10">
-        <v>20</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10">
-        <v>20</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10">
-        <v>20</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10">
-        <v>20</v>
-      </c>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>20</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>20</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9">
+        <v>20</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
+        <v>20</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9">
+        <v>20</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9">
+        <v>20</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9">
+        <v>20</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9">
+        <v>20</v>
+      </c>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA35" s="9"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10">
-        <v>20</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
-        <v>20</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10">
-        <v>20</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10">
-        <v>20</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10">
-        <v>20</v>
-      </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10">
-        <v>20</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10">
-        <v>20</v>
-      </c>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9">
+        <v>20</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9">
+        <v>20</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
+        <v>20</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <v>20</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9">
+        <v>20</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9">
+        <v>20</v>
+      </c>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9">
+        <v>20</v>
+      </c>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9">
+        <v>20</v>
+      </c>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="9"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10">
-        <v>20</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10">
-        <v>20</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10">
-        <v>20</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10">
-        <v>20</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10">
-        <v>20</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10">
-        <v>20</v>
-      </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10">
-        <v>20</v>
-      </c>
-      <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9">
+        <v>20</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <v>180</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9">
+        <v>20</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9">
+        <v>20</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9">
+        <v>20</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9">
+        <v>20</v>
+      </c>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9">
+        <v>20</v>
+      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9">
+        <v>20</v>
+      </c>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9">
+        <v>20</v>
+      </c>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA37" s="9"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="10">
-        <v>20</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
-        <v>180</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10">
-        <v>20</v>
-      </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10">
-        <v>20</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10">
-        <v>20</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10">
-        <v>20</v>
-      </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10">
-        <v>20</v>
-      </c>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="9">
+        <v>20</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
+        <v>20</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9">
+        <v>20</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9">
+        <v>20</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9">
+        <v>20</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9">
+        <v>20</v>
+      </c>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9">
+        <v>20</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9">
+        <v>20</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9">
+        <v>20</v>
+      </c>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA38" s="9"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="10">
-        <v>20</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10">
-        <v>20</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10">
-        <v>20</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10">
-        <v>20</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10">
-        <v>20</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10">
-        <v>20</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10">
-        <v>20</v>
-      </c>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
+      <c r="C39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="9">
+        <v>20</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
+        <v>20</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
+        <v>20</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9">
+        <v>20</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9">
+        <v>20</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9">
+        <v>20</v>
+      </c>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9">
+        <v>20</v>
+      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9">
+        <v>20</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9">
+        <v>20</v>
+      </c>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA39" s="9"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="10">
-        <v>20</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
-        <v>20</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10">
-        <v>20</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10">
-        <v>20</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10">
-        <v>20</v>
-      </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10">
-        <v>20</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10">
-        <v>20</v>
-      </c>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
+      <c r="D40" s="9">
+        <v>20</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9">
+        <v>20</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9">
+        <v>20</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9">
+        <v>20</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9">
+        <v>20</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9">
+        <v>20</v>
+      </c>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9">
+        <v>20</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9">
+        <v>20</v>
+      </c>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9">
+        <v>20</v>
+      </c>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA40" s="9"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="10">
-        <v>20</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
-        <v>20</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10">
-        <v>20</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10">
-        <v>20</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10">
-        <v>20</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10">
-        <v>20</v>
-      </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10">
-        <v>20</v>
-      </c>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
+      <c r="D41" s="9">
+        <v>20</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
+        <v>190</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <v>20</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <v>20</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
+        <v>20</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9">
+        <v>20</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9">
+        <v>20</v>
+      </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9">
+        <v>20</v>
+      </c>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9">
+        <v>20</v>
+      </c>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="9">
+        <v>20</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
+        <v>20</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
+        <v>20</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9">
+        <v>20</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9">
+        <v>20</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9">
+        <v>20</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9">
+        <v>20</v>
+      </c>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9">
+        <v>20</v>
+      </c>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9">
+        <v>20</v>
+      </c>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9">
+        <v>20</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
+        <v>20</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9">
+        <v>20</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <v>20</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9">
+        <v>115</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9">
+        <v>20</v>
+      </c>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9">
+        <v>20</v>
+      </c>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9">
+        <v>20</v>
+      </c>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9">
+        <v>20</v>
+      </c>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA43" s="9"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="10">
-        <v>20</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10">
-        <v>190</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10">
-        <v>20</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10">
-        <v>20</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10">
-        <v>20</v>
-      </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10">
-        <v>20</v>
-      </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10">
-        <v>20</v>
-      </c>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="10">
-        <v>20</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10">
-        <v>20</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10">
-        <v>20</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10">
-        <v>20</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10">
-        <v>20</v>
-      </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10">
-        <v>20</v>
-      </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10">
-        <v>20</v>
-      </c>
-      <c r="S42" s="10"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10">
-        <v>20</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
-        <v>20</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10">
-        <v>20</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10">
-        <v>20</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10">
-        <v>115</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10">
-        <v>20</v>
-      </c>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10">
-        <v>20</v>
-      </c>
-      <c r="S43" s="10"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
+      <c r="D44" s="9">
+        <v>20</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
+        <v>20</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9">
+        <v>20</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9">
+        <v>20</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9">
+        <v>20</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9">
+        <v>20</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9">
+        <v>20</v>
+      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9">
+        <v>20</v>
+      </c>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9">
+        <v>20</v>
+      </c>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA44" s="9"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="10">
-        <v>20</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
-        <v>20</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10">
-        <v>20</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10">
-        <v>20</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10">
-        <v>20</v>
-      </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10">
-        <v>20</v>
-      </c>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10">
-        <v>20</v>
-      </c>
-      <c r="S44" s="10"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="10">
-        <v>20</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10">
-        <v>20</v>
-      </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10">
-        <v>20</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10">
-        <v>20</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10">
-        <v>20</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10">
-        <v>20</v>
-      </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10">
-        <v>20</v>
-      </c>
-      <c r="S45" s="10"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="9">
+        <v>20</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <v>20</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9">
+        <v>20</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9">
+        <v>20</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9">
+        <v>20</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9">
+        <v>20</v>
+      </c>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9">
+        <v>20</v>
+      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9">
+        <v>20</v>
+      </c>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9">
+        <v>20</v>
+      </c>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="9"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -2098,56 +2544,300 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <f>D31-SUM(D34:E45)</f>
         <v>147710</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="9">
-        <f t="shared" ref="F48:S48" si="6">F31-SUM(F34:G45)</f>
+      <c r="F48" s="8">
+        <f t="shared" ref="F48" si="6">F31-SUM(F34:G45)</f>
         <v>241430</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="9">
-        <f t="shared" ref="H48:S48" si="7">H31-SUM(H34:I45)</f>
+      <c r="H48" s="8">
+        <f t="shared" ref="H48" si="7">H31-SUM(H34:I45)</f>
         <v>384760</v>
       </c>
       <c r="I48" s="7"/>
-      <c r="J48" s="9">
-        <f t="shared" ref="J48:S48" si="8">J31-SUM(J34:K45)</f>
+      <c r="J48" s="8">
+        <f t="shared" ref="J48" si="8">J31-SUM(J34:K45)</f>
         <v>307760</v>
       </c>
       <c r="K48" s="7"/>
-      <c r="L48" s="9">
-        <f t="shared" ref="L48:S48" si="9">L31-SUM(L34:M45)</f>
+      <c r="L48" s="8">
+        <f t="shared" ref="L48" si="9">L31-SUM(L34:M45)</f>
         <v>362665</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="9">
-        <f t="shared" ref="N48:S48" si="10">N31-SUM(N34:O45)</f>
+      <c r="N48" s="8">
+        <f t="shared" ref="N48" si="10">N31-SUM(N34:O45)</f>
         <v>362760</v>
       </c>
       <c r="O48" s="7"/>
-      <c r="P48" s="9">
-        <f t="shared" ref="P48:S48" si="11">P31-SUM(P34:Q45)</f>
+      <c r="P48" s="8">
+        <f t="shared" ref="P48" si="11">P31-SUM(P34:Q45)</f>
         <v>461760</v>
       </c>
       <c r="Q48" s="7"/>
-      <c r="R48" s="9">
-        <f t="shared" ref="R48:S48" si="12">R31-SUM(R34:S45)</f>
+      <c r="R48" s="8">
+        <f t="shared" ref="R48:Z48" si="12">R31-SUM(R34:S45)</f>
         <v>-240</v>
       </c>
       <c r="S48" s="7"/>
+      <c r="T48" s="8">
+        <f t="shared" si="12"/>
+        <v>-240</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="8">
+        <f t="shared" si="12"/>
+        <v>-240</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="8">
+        <f t="shared" si="12"/>
+        <v>-240</v>
+      </c>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="8">
+        <f t="shared" si="12"/>
+        <v>-240</v>
+      </c>
+      <c r="AA48" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="240">
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
@@ -2172,150 +2862,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
